--- a/nodes_source_analyses/energy/transport/transport_freight_train_using_hydrogen.converter.xlsx
+++ b/nodes_source_analyses/energy/transport/transport_freight_train_using_hydrogen.converter.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10711"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/martlubben/Projects/etdataset/nodes_source_analyses/energy/transport/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9465A3E9-4F1C-F24A-BC23-6E6A016C8864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFD3BC7-ADD4-E94D-84B3-A4527CA237E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="460" windowWidth="14400" windowHeight="16660" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16660" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -1267,33 +1267,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="27" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1302,6 +1275,33 @@
     <xf numFmtId="9" fontId="27" fillId="2" borderId="0" xfId="337" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="27" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="12" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="338">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1684,8 +1684,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5956300" y="1536700"/>
-          <a:ext cx="6491228" cy="2768600"/>
+          <a:off x="6705600" y="1536700"/>
+          <a:ext cx="7672328" cy="2768600"/>
           <a:chOff x="10045700" y="7886700"/>
           <a:chExt cx="7672328" cy="2692400"/>
         </a:xfrm>
@@ -2443,12 +2443,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="26" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="18" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="18" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="18"/>
+    <col min="1" max="1" width="3.42578125" style="26" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" style="18" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="24" customFormat="1">
@@ -2625,23 +2625,23 @@
   </sheetPr>
   <dimension ref="B1:J13"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.1640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="46.83203125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="31" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="31" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="31" customWidth="1"/>
-    <col min="7" max="7" width="49.5" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="31" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="46.85546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="31" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="49.42578125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="31" customWidth="1"/>
     <col min="10" max="10" width="5" style="31" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="31"/>
+    <col min="11" max="16384" width="10.7109375" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10">
@@ -2651,36 +2651,36 @@
       <c r="G1" s="32"/>
     </row>
     <row r="2" spans="2:10">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="136" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
+      <c r="C2" s="137"/>
+      <c r="D2" s="137"/>
+      <c r="E2" s="138"/>
       <c r="F2" s="32"/>
       <c r="G2" s="32"/>
     </row>
     <row r="3" spans="2:10">
-      <c r="B3" s="133"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="135"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="141"/>
       <c r="F3" s="32"/>
       <c r="G3" s="32"/>
     </row>
     <row r="4" spans="2:10">
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
       <c r="F4" s="32"/>
       <c r="G4" s="32"/>
     </row>
     <row r="5" spans="2:10">
-      <c r="B5" s="136"/>
-      <c r="C5" s="137"/>
-      <c r="D5" s="137"/>
-      <c r="E5" s="138"/>
+      <c r="B5" s="142"/>
+      <c r="C5" s="143"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="144"/>
       <c r="F5" s="32"/>
       <c r="G5" s="32"/>
     </row>
@@ -2753,14 +2753,14 @@
       </c>
       <c r="E11" s="115">
         <f>'Research data'!H7</f>
-        <v>7.1428571428571423</v>
+        <v>3.9285714285714279</v>
       </c>
       <c r="F11" s="35"/>
       <c r="G11" s="91" t="s">
         <v>39</v>
       </c>
       <c r="H11" s="28"/>
-      <c r="I11" s="139" t="s">
+      <c r="I11" s="130" t="s">
         <v>55</v>
       </c>
       <c r="J11" s="13"/>
@@ -2777,7 +2777,7 @@
       <c r="F12" s="35"/>
       <c r="G12" s="91"/>
       <c r="H12" s="28"/>
-      <c r="I12" s="144" t="s">
+      <c r="I12" s="135" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="13"/>
@@ -2813,24 +2813,24 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="35.83203125" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="3.1640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="39" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="2.1640625" style="39" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" style="39"/>
-    <col min="12" max="12" width="2.5" style="39" customWidth="1"/>
-    <col min="13" max="14" width="10.6640625" style="39"/>
-    <col min="15" max="15" width="13.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="1.6640625" style="39" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" style="39" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="39" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="39"/>
+    <col min="12" max="12" width="2.42578125" style="39" customWidth="1"/>
+    <col min="13" max="14" width="10.7109375" style="39"/>
+    <col min="15" max="15" width="13.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="1.7109375" style="39" customWidth="1"/>
     <col min="17" max="17" width="75" style="39" customWidth="1"/>
-    <col min="18" max="16384" width="10.6640625" style="39"/>
+    <col min="18" max="16384" width="10.7109375" style="39"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:17" ht="17" thickBot="1"/>
@@ -2932,13 +2932,13 @@
       <c r="G7" s="84"/>
       <c r="H7" s="85">
         <f>K7</f>
-        <v>7.1428571428571423</v>
+        <v>3.9285714285714279</v>
       </c>
       <c r="I7" s="86"/>
       <c r="J7" s="43"/>
       <c r="K7" s="85">
         <f>Notes!E10</f>
-        <v>7.1428571428571423</v>
+        <v>3.9285714285714279</v>
       </c>
       <c r="L7" s="87"/>
       <c r="M7" s="43"/>
@@ -2978,22 +2978,22 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="48" customWidth="1"/>
-    <col min="2" max="2" width="4.1640625" style="48" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="48" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="48" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" style="48" customWidth="1"/>
-    <col min="6" max="7" width="13.1640625" style="48" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="53" customWidth="1"/>
-    <col min="9" max="9" width="31.83203125" style="53" customWidth="1"/>
-    <col min="10" max="10" width="98.5" style="48" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="48"/>
+    <col min="1" max="1" width="3.42578125" style="48" customWidth="1"/>
+    <col min="2" max="2" width="4.140625" style="48" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="48" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" style="48" customWidth="1"/>
+    <col min="6" max="7" width="13.140625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="53" customWidth="1"/>
+    <col min="9" max="9" width="31.85546875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="98.42578125" style="48" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="17" thickBot="1"/>
@@ -3103,10 +3103,10 @@
     <row r="9" spans="2:10">
       <c r="B9" s="51"/>
       <c r="C9" s="96"/>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="140" t="s">
+      <c r="E9" s="131" t="s">
         <v>2</v>
       </c>
       <c r="F9" s="48">
@@ -3115,7 +3115,7 @@
       <c r="G9" s="48">
         <v>2016</v>
       </c>
-      <c r="H9" s="141" t="s">
+      <c r="H9" s="132" t="s">
         <v>49</v>
       </c>
       <c r="I9" s="53" t="s">
@@ -3240,22 +3240,22 @@
   </sheetPr>
   <dimension ref="A1:M35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23:O34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="2" width="3.5" style="100" customWidth="1"/>
+    <col min="1" max="2" width="3.42578125" style="100" customWidth="1"/>
     <col min="3" max="3" width="22" style="100" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.5" style="100" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.42578125" style="100" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="100" customWidth="1"/>
-    <col min="6" max="6" width="22.5" style="100" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" style="100" customWidth="1"/>
     <col min="7" max="7" width="13" style="100" customWidth="1"/>
-    <col min="8" max="8" width="15.6640625" style="100" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" style="100"/>
-    <col min="10" max="10" width="19.83203125" style="100" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="100"/>
+    <col min="8" max="8" width="15.7109375" style="100" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" style="100"/>
+    <col min="10" max="10" width="19.85546875" style="100" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="100"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" thickBot="1"/>
@@ -3360,7 +3360,7 @@
       <c r="D9" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="143">
+      <c r="E9" s="134">
         <f>E8/D27</f>
         <v>0.25454545454545457</v>
       </c>
@@ -3372,8 +3372,8 @@
         <v>output.freight_tonne_kms</v>
       </c>
       <c r="E10" s="100">
-        <f>1/E8</f>
-        <v>7.1428571428571423</v>
+        <f>1/E9</f>
+        <v>3.9285714285714279</v>
       </c>
       <c r="F10" s="117" t="s">
         <v>46</v>
@@ -3440,7 +3440,7 @@
       <c r="C27" s="117" t="s">
         <v>51</v>
       </c>
-      <c r="D27" s="142">
+      <c r="D27" s="133">
         <v>0.55000000000000004</v>
       </c>
     </row>
